--- a/medicine/Mort/Cimetière_de_Montjuïc/Cimetière_de_Montjuïc.xlsx
+++ b/medicine/Mort/Cimetière_de_Montjuïc/Cimetière_de_Montjuïc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Montju%C3%AFc</t>
+          <t>Cimetière_de_Montjuïc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Montjuïc (catalan : Cementiri del Sud-oest) est un cimetière situé sur la montagne de Montjuïc à Barcelone.
 Il est l'un des hauts lieux de mémoire de la guerre d'Espagne et abrite le Fossar de la Pedrera, sépulture de milliers de républicains espagnols, ainsi que le mausolée du président Lluís Companys.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Montju%C3%AFc</t>
+          <t>Cimetière_de_Montjuïc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est ouvert le 17 mars 1883 par la ville de Barcelone en tant que cimetière principal, déclassant ainsi le cimetière du Poblenou, situé dans l'est. 
 Barcelone s'est effectivement fortement industrialisée durant le XIXe siècle et la croissance économique en fait le cœur de la Principauté de Catalogne, ainsi que le centre de l'une des agglomérations les plus importantes d'Europe.  
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Montju%C3%AFc</t>
+          <t>Cimetière_de_Montjuïc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,11 +562,13 @@
           <t>Lieu de mémoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au début de la Seconde Guerre mondiale, après la guerre d'Espagne, le président catalan Lluís Companys, livré sous le régime de Vichy par la Gestapo à Franco, est fusillé en 1940 au-dessus du cimetière, dans le château de Montjuïc[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début de la Seconde Guerre mondiale, après la guerre d'Espagne, le président catalan Lluís Companys, livré sous le régime de Vichy par la Gestapo à Franco, est fusillé en 1940 au-dessus du cimetière, dans le château de Montjuïc.
 Après la guerre, les troupes franquistes y enterrent sommairement les corps de milliers de républicains, militaires et civils, provenant notamment de la prison Model et du camp de la Bota, dans les fosses communes du Fossar de la Pedrera.
-Œuvre de l'architecte Beth Gali, le site est désormais un mémorial et haut lieu de la mémoire nationale[2].
+Œuvre de l'architecte Beth Gali, le site est désormais un mémorial et haut lieu de la mémoire nationale.
 </t>
         </is>
       </c>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Montju%C3%AFc</t>
+          <t>Cimetière_de_Montjuïc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Patrimoine de mémoire international</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1925, un monument aux morts pour la France de la Première Guerre mondiale du sculpteur français Gustave Violet est inauguré dans le cimetière.
 Le cimetière contient une tombe de guerre du Commonwealth à la mémoire de Charles Hill, soldat britannique œuvrant au sein des Queen's Own Cameron Highlanders décédé en 1941 durant la Seconde Guerre mondiale.
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Montju%C3%AFc</t>
+          <t>Cimetière_de_Montjuïc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,10 +631,12 @@
           <t>Culture populaire et tourisme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre le Fossar de la Pedrera, lieu du tourisme mémoriel européen, le cimetière est rendu mondialement célèbre grâce au film Tout sur ma mère de Pedro Almodóvar, pour la scène de l'enterrement de Rosa (jouée par Penélope Cruz)[3].
-Il est aujourd'hui, avec les sépultures de nombreuses célébrités inhumées, le cimetière le plus visité de Barcelone par les touristes, avec le cimetière du Poblenou, plus proche du centre de Barcelone, situé dans le district de Sant Martí[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre le Fossar de la Pedrera, lieu du tourisme mémoriel européen, le cimetière est rendu mondialement célèbre grâce au film Tout sur ma mère de Pedro Almodóvar, pour la scène de l'enterrement de Rosa (jouée par Penélope Cruz).
+Il est aujourd'hui, avec les sépultures de nombreuses célébrités inhumées, le cimetière le plus visité de Barcelone par les touristes, avec le cimetière du Poblenou, plus proche du centre de Barcelone, situé dans le district de Sant Martí.
 </t>
         </is>
       </c>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Montju%C3%AFc</t>
+          <t>Cimetière_de_Montjuïc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +665,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Isaac Albéniz (1860-1909), pianiste et compositeur
@@ -671,7 +693,7 @@
 Francesc Ferrer i Guàrdia (1859-1909), anarchiste et pédagogue
 Joan Gamper (1877-1930), sportif suisse
 Àngel Guimerà (1845-1924), écrivain
-Carme Karr (1865-1943), journaliste et écrivaine[5]
+Carme Karr (1865-1943), journaliste et écrivaine
 Francesc Layret (1880-1920), homme politique
 Anselmo Lorenzo (1841-1914), homme politique et anarchiste
 Francesc Macià (1859-1933), premier président de la Catalogne et ancien officiel dans l'Armée espagnole
